--- a/dataprocessing/Metrics and Estimates 5-12-2015.xlsx
+++ b/dataprocessing/Metrics and Estimates 5-12-2015.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25915"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="9040" yWindow="3120" windowWidth="17480" windowHeight="12800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -893,26 +898,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -922,7 +907,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$H$1</c:f>
@@ -965,73 +950,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1043,73 +1028,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>323814</c:v>
+                  <c:v>323814.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>578894</c:v>
+                  <c:v>578894.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>205246</c:v>
+                  <c:v>205246.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84948</c:v>
+                  <c:v>84948.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>477584</c:v>
+                  <c:v>477584.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>579306</c:v>
+                  <c:v>579306.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>908415</c:v>
+                  <c:v>908415.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>755783</c:v>
+                  <c:v>755783.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>458203</c:v>
+                  <c:v>458203.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>527315</c:v>
+                  <c:v>527315.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>660915</c:v>
+                  <c:v>660915.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>591139</c:v>
+                  <c:v>591139.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>584972</c:v>
+                  <c:v>584972.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>486965</c:v>
+                  <c:v>486965.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>597852</c:v>
+                  <c:v>597852.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>655892</c:v>
+                  <c:v>655892.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>753695</c:v>
+                  <c:v>753695.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>528410</c:v>
+                  <c:v>528410.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>726532</c:v>
+                  <c:v>726532.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>370307</c:v>
+                  <c:v>370307.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>853518</c:v>
+                  <c:v>853518.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>427338</c:v>
+                  <c:v>427338.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>335097</c:v>
+                  <c:v>335097.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,7 +1103,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$J$1</c:f>
@@ -1161,73 +1146,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1239,73 +1224,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>204000</c:v>
+                  <c:v>204000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>210600</c:v>
+                  <c:v>210600.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>217800</c:v>
+                  <c:v>217800.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77400</c:v>
+                  <c:v>77400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100800</c:v>
+                  <c:v>100800.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>138600</c:v>
+                  <c:v>138600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>238800</c:v>
+                  <c:v>238800.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>237600</c:v>
+                  <c:v>237600.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>292800</c:v>
+                  <c:v>292800.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>309000</c:v>
+                  <c:v>309000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>283200</c:v>
+                  <c:v>283200.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>277800</c:v>
+                  <c:v>277800.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>343800</c:v>
+                  <c:v>343800.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>280800</c:v>
+                  <c:v>280800.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>292800</c:v>
+                  <c:v>292800.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>351600</c:v>
+                  <c:v>351600.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>339600</c:v>
+                  <c:v>339600.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>318000</c:v>
+                  <c:v>318000.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>359400</c:v>
+                  <c:v>359400.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>319800</c:v>
+                  <c:v>319800.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>310800</c:v>
+                  <c:v>310800.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>271200</c:v>
+                  <c:v>271200.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>219600</c:v>
+                  <c:v>219600.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,8 +1305,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214269936"/>
-        <c:axId val="214270720"/>
+        <c:axId val="2111814232"/>
+        <c:axId val="2111620072"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -1976,7 +1961,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214269936"/>
+        <c:axId val="2111814232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2036,26 +2021,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2094,13 +2059,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214270720"/>
+        <c:crossAx val="2111620072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214270720"/>
+        <c:axId val="2111620072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2155,26 +2120,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2213,7 +2158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214269936"/>
+        <c:crossAx val="2111814232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2348,26 +2293,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2377,7 +2302,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$K$1</c:f>
@@ -2420,73 +2345,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2498,73 +2423,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>119814</c:v>
+                  <c:v>119814.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>368294</c:v>
+                  <c:v>368294.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-12554</c:v>
+                  <c:v>-12554.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7548</c:v>
+                  <c:v>7548.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>376784</c:v>
+                  <c:v>376784.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>440706</c:v>
+                  <c:v>440706.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>669615</c:v>
+                  <c:v>669615.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>518183</c:v>
+                  <c:v>518183.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>165403</c:v>
+                  <c:v>165403.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>218315</c:v>
+                  <c:v>218315.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>377715</c:v>
+                  <c:v>377715.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>313339</c:v>
+                  <c:v>313339.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>241172</c:v>
+                  <c:v>241172.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>206165</c:v>
+                  <c:v>206165.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>305052</c:v>
+                  <c:v>305052.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>304292</c:v>
+                  <c:v>304292.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>414095</c:v>
+                  <c:v>414095.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>210410</c:v>
+                  <c:v>210410.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>367132</c:v>
+                  <c:v>367132.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50507</c:v>
+                  <c:v>50507.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>542718</c:v>
+                  <c:v>542718.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>156138</c:v>
+                  <c:v>156138.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115497</c:v>
+                  <c:v>115497.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2573,7 +2498,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$L$1</c:f>
@@ -2622,73 +2547,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2700,73 +2625,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>1074536</c:v>
+                  <c:v>1.074536E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1954070</c:v>
+                  <c:v>1.95407E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>678726</c:v>
+                  <c:v>678726.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>277384</c:v>
+                  <c:v>277384.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1525572</c:v>
+                  <c:v>1.525572E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1862331</c:v>
+                  <c:v>1.862331E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2991976</c:v>
+                  <c:v>2.991976E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2456078</c:v>
+                  <c:v>2.456078E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1488667</c:v>
+                  <c:v>1.488667E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1713464</c:v>
+                  <c:v>1.713464E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2129452</c:v>
+                  <c:v>2.129452E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1895128</c:v>
+                  <c:v>1.895128E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1918013</c:v>
+                  <c:v>1.918013E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1600883</c:v>
+                  <c:v>1.600883E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1938090</c:v>
+                  <c:v>1.93809E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2134947</c:v>
+                  <c:v>2.134947E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2446346</c:v>
+                  <c:v>2.446346E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1699984</c:v>
+                  <c:v>1.699984E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2347281</c:v>
+                  <c:v>2.347281E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1193771</c:v>
+                  <c:v>1.193771E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2842864</c:v>
+                  <c:v>2.842864E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1392837</c:v>
+                  <c:v>1.392837E6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1086801</c:v>
+                  <c:v>1.086801E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2781,8 +2706,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214266800"/>
-        <c:axId val="214271504"/>
+        <c:axId val="2115244616"/>
+        <c:axId val="2115238680"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -3869,7 +3794,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214266800"/>
+        <c:axId val="2115244616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3929,26 +3854,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3987,12 +3892,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214271504"/>
+        <c:crossAx val="2115238680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214271504"/>
+        <c:axId val="2115238680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4052,26 +3957,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4110,7 +3995,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214266800"/>
+        <c:crossAx val="2115244616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4245,26 +4130,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4274,7 +4139,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$G$1</c:f>
@@ -4318,73 +4183,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -4397,73 +4262,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>1398350</c:v>
+                  <c:v>1.39835E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2532964</c:v>
+                  <c:v>2.532964E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>883972</c:v>
+                  <c:v>883972.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>362332</c:v>
+                  <c:v>362332.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2003156</c:v>
+                  <c:v>2.003156E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2441637</c:v>
+                  <c:v>2.441637E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3900391</c:v>
+                  <c:v>3.900391E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3211861</c:v>
+                  <c:v>3.211861E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1946870</c:v>
+                  <c:v>1.94687E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2240779</c:v>
+                  <c:v>2.240779E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2790367</c:v>
+                  <c:v>2.790367E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2486267</c:v>
+                  <c:v>2.486267E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2502985</c:v>
+                  <c:v>2.502985E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2087848</c:v>
+                  <c:v>2.087848E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2535942</c:v>
+                  <c:v>2.535942E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2790839</c:v>
+                  <c:v>2.790839E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3200041</c:v>
+                  <c:v>3.200041E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2228394</c:v>
+                  <c:v>2.228394E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3073813</c:v>
+                  <c:v>3.073813E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1564078</c:v>
+                  <c:v>1.564078E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3696382</c:v>
+                  <c:v>3.696382E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1820175</c:v>
+                  <c:v>1.820175E6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1421898</c:v>
+                  <c:v>1.421898E6</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -4473,7 +4338,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$I$1</c:f>
@@ -4517,73 +4382,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -4596,73 +4461,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>1559158</c:v>
+                  <c:v>1.559158E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2881431</c:v>
+                  <c:v>2.881431E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>974695</c:v>
+                  <c:v>974695.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400029</c:v>
+                  <c:v>400029.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2337973</c:v>
+                  <c:v>2.337973E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2838158</c:v>
+                  <c:v>2.838158E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4451651</c:v>
+                  <c:v>4.451651E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3692036</c:v>
+                  <c:v>3.692036E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2221037</c:v>
+                  <c:v>2.221037E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2566952</c:v>
+                  <c:v>2.566952E6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3225876</c:v>
+                  <c:v>3.225876E6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2876829</c:v>
+                  <c:v>2.876829E6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2842600</c:v>
+                  <c:v>2.8426E6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2366491</c:v>
+                  <c:v>2.366491E6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2907131</c:v>
+                  <c:v>2.907131E6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3197188</c:v>
+                  <c:v>3.197188E6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3677667</c:v>
+                  <c:v>3.677667E6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2566315</c:v>
+                  <c:v>2.566315E6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3539926</c:v>
+                  <c:v>3.539926E6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1778311</c:v>
+                  <c:v>1.778311E6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4229808</c:v>
+                  <c:v>4.229808E6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2067492</c:v>
+                  <c:v>2.067492E6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1613475</c:v>
+                  <c:v>1.613475E6</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -4678,8 +4543,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214265232"/>
-        <c:axId val="215996464"/>
+        <c:axId val="2115341480"/>
+        <c:axId val="2115350824"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -5334,7 +5199,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214265232"/>
+        <c:axId val="2115341480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5394,26 +5259,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5452,12 +5297,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215996464"/>
+        <c:crossAx val="2115350824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215996464"/>
+        <c:axId val="2115350824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5512,26 +5357,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5570,7 +5395,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214265232"/>
+        <c:crossAx val="2115341480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7461,7 +7286,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7496,7 +7321,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7707,25 +7532,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="18.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7756,7 +7581,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7797,7 +7622,7 @@
         <v>1074536</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7839,7 +7664,7 @@
         <v>1954070</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7880,7 +7705,7 @@
         <v>678726</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7924,7 +7749,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7968,7 +7793,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -8012,7 +7837,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8053,7 +7878,7 @@
         <v>2991976</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -8094,7 +7919,7 @@
         <v>2456078</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -8135,7 +7960,7 @@
         <v>1488667</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -8176,7 +8001,7 @@
         <v>1713464</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -8217,7 +8042,7 @@
         <v>2129452</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -8258,7 +8083,7 @@
         <v>1895128</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8296,7 +8121,7 @@
         <v>1918013</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8334,7 +8159,7 @@
         <v>1600883</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -8375,7 +8200,7 @@
         <v>1938090</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -8416,7 +8241,7 @@
         <v>2134947</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -8457,7 +8282,7 @@
         <v>2446346</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -8498,7 +8323,7 @@
         <v>1699984</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -8539,7 +8364,7 @@
         <v>2347281</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -8580,7 +8405,7 @@
         <v>1193771</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -8621,7 +8446,7 @@
         <v>2842864</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -8662,7 +8487,7 @@
         <v>1392837</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -8703,7 +8528,7 @@
         <v>1086801</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -8712,7 +8537,7 @@
         <v>578894</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -8721,7 +8546,7 @@
         <v>2881431</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -8730,7 +8555,7 @@
         <v>210600</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -8739,19 +8564,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="B29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="B30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -8760,7 +8585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -8769,7 +8594,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -8778,7 +8603,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -8787,7 +8612,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -8796,7 +8621,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -8805,7 +8630,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -8814,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -8823,7 +8648,7 @@
         <v>51362</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -8832,7 +8657,7 @@
         <v>883972</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -8841,7 +8666,7 @@
         <v>205246</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -8850,7 +8675,7 @@
         <v>974695</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -8859,7 +8684,7 @@
         <v>217800</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -8868,19 +8693,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="B44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="B45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -8889,7 +8714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -8898,7 +8723,7 @@
         <v>5003</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -8907,7 +8732,7 @@
         <v>136335</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -8916,7 +8741,7 @@
         <v>32326</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -8925,7 +8750,7 @@
         <v>159227</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -8934,7 +8759,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -8943,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -8952,7 +8777,7 @@
         <v>22067</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -8961,7 +8786,7 @@
         <v>362332</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -8970,7 +8795,7 @@
         <v>84948</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>43</v>
       </c>
@@ -8979,7 +8804,7 @@
         <v>400029</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -8988,7 +8813,7 @@
         <v>77400</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>45</v>
       </c>
@@ -8997,19 +8822,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="B59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="B60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -9018,7 +8843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>47</v>
       </c>
@@ -9027,7 +8852,7 @@
         <v>5608</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -9036,7 +8861,7 @@
         <v>143552</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -9045,7 +8870,7 @@
         <v>34316</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>50</v>
       </c>
@@ -9054,7 +8879,7 @@
         <v>168340</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -9063,7 +8888,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -9073,7 +8898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -9082,7 +8907,7 @@
         <v>78541</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>52</v>
       </c>
@@ -9091,7 +8916,7 @@
         <v>2003156</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -9100,7 +8925,7 @@
         <v>477584</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>54</v>
       </c>
@@ -9109,7 +8934,7 @@
         <v>2337973</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>55</v>
       </c>
@@ -9118,7 +8943,7 @@
         <v>100800</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>56</v>
       </c>
@@ -9127,19 +8952,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2">
       <c r="B74">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2">
       <c r="B75">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>57</v>
       </c>
@@ -9148,7 +8973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>58</v>
       </c>
@@ -9157,7 +8982,7 @@
         <v>5269</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>59</v>
       </c>
@@ -9166,7 +8991,7 @@
         <v>140789</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>60</v>
       </c>
@@ -9175,7 +9000,7 @@
         <v>33665</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>61</v>
       </c>
@@ -9184,7 +9009,7 @@
         <v>165511</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>62</v>
       </c>
@@ -9193,7 +9018,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -9202,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>63</v>
       </c>
@@ -9211,7 +9036,7 @@
         <v>96044</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>64</v>
       </c>
@@ -9220,7 +9045,7 @@
         <v>2441637</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>65</v>
       </c>
@@ -9229,7 +9054,7 @@
         <v>579306</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>66</v>
       </c>
@@ -9238,7 +9063,7 @@
         <v>2838158</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>67</v>
       </c>
@@ -9247,7 +9072,7 @@
         <v>138600</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>68</v>
       </c>
@@ -9256,19 +9081,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2">
       <c r="B89">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2">
       <c r="B90">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -9277,7 +9102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>70</v>
       </c>
@@ -9286,7 +9111,7 @@
         <v>5910</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>71</v>
       </c>
@@ -9295,7 +9120,7 @@
         <v>153455</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>72</v>
       </c>
@@ -9304,7 +9129,7 @@
         <v>32948</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>73</v>
       </c>
@@ -9313,7 +9138,7 @@
         <v>160702</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>74</v>
       </c>
@@ -9322,7 +9147,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -9331,7 +9156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>75</v>
       </c>
@@ -9340,7 +9165,7 @@
         <v>156147</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>76</v>
       </c>
@@ -9349,7 +9174,7 @@
         <v>3900391</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>77</v>
       </c>
@@ -9358,7 +9183,7 @@
         <v>908415</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>78</v>
       </c>
@@ -9367,7 +9192,7 @@
         <v>4451651</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>79</v>
       </c>
@@ -9376,7 +9201,7 @@
         <v>238800</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>80</v>
       </c>
@@ -9385,19 +9210,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2">
       <c r="B104">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2">
       <c r="B105">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>81</v>
       </c>
@@ -9406,7 +9231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>82</v>
       </c>
@@ -9415,7 +9240,7 @@
         <v>5320</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>83</v>
       </c>
@@ -9424,7 +9249,7 @@
         <v>139694</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>84</v>
       </c>
@@ -9433,7 +9258,7 @@
         <v>33224</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>85</v>
       </c>
@@ -9442,7 +9267,7 @@
         <v>163757</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>86</v>
       </c>
@@ -9451,7 +9276,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -9460,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>87</v>
       </c>
@@ -9469,7 +9294,7 @@
         <v>131770</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>88</v>
       </c>
@@ -9478,7 +9303,7 @@
         <v>3211861</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>89</v>
       </c>
@@ -9487,7 +9312,7 @@
         <v>755783</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>90</v>
       </c>
@@ -9496,7 +9321,7 @@
         <v>3692036</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>91</v>
       </c>
@@ -9505,7 +9330,7 @@
         <v>237600</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>12</v>
       </c>
@@ -9514,19 +9339,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2">
       <c r="B119">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2">
       <c r="B120">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>92</v>
       </c>
@@ -9535,7 +9360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>93</v>
       </c>
@@ -9544,7 +9369,7 @@
         <v>5481</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>94</v>
       </c>
@@ -9553,7 +9378,7 @@
         <v>143018</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>95</v>
       </c>
@@ -9562,7 +9387,7 @@
         <v>33804</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>96</v>
       </c>
@@ -9571,7 +9396,7 @@
         <v>165500</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>97</v>
       </c>
@@ -9580,7 +9405,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -9589,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>98</v>
       </c>
@@ -9598,7 +9423,7 @@
         <v>88385</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>99</v>
       </c>
@@ -9607,7 +9432,7 @@
         <v>1946870</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>100</v>
       </c>
@@ -9616,7 +9441,7 @@
         <v>458203</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>101</v>
       </c>
@@ -9626,7 +9451,7 @@
         <v>2221037</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>102</v>
       </c>
@@ -9635,7 +9460,7 @@
         <v>292800</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -9644,19 +9469,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2">
       <c r="B134">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2">
       <c r="B135">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>103</v>
       </c>
@@ -9665,7 +9490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>104</v>
       </c>
@@ -9674,7 +9499,7 @@
         <v>5355</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>105</v>
       </c>
@@ -9683,7 +9508,7 @@
         <v>141129</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>106</v>
       </c>
@@ -9692,7 +9517,7 @@
         <v>33672</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>107</v>
       </c>
@@ -9701,7 +9526,7 @@
         <v>165779</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>108</v>
       </c>
@@ -9710,7 +9535,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -9719,7 +9544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>109</v>
       </c>
@@ -9728,7 +9553,7 @@
         <v>98769</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>110</v>
       </c>
@@ -9737,7 +9562,7 @@
         <v>2240779</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>111</v>
       </c>
@@ -9746,7 +9571,7 @@
         <v>527315</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>112</v>
       </c>
@@ -9755,7 +9580,7 @@
         <v>2566952</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>113</v>
       </c>
@@ -9764,7 +9589,7 @@
         <v>309000</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>12</v>
       </c>
@@ -9773,19 +9598,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2">
       <c r="B149">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2">
       <c r="B150">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>114</v>
       </c>
@@ -9794,7 +9619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>115</v>
       </c>
@@ -9803,7 +9628,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>116</v>
       </c>
@@ -9812,7 +9637,7 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>117</v>
       </c>
@@ -9821,7 +9646,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>118</v>
       </c>
@@ -9830,7 +9655,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>74</v>
       </c>
@@ -9839,7 +9664,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -9848,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>119</v>
       </c>
@@ -9857,7 +9682,7 @@
         <v>118019</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>120</v>
       </c>
@@ -9866,7 +9691,7 @@
         <v>2790367</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>121</v>
       </c>
@@ -9875,7 +9700,7 @@
         <v>660915</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>122</v>
       </c>
@@ -9884,7 +9709,7 @@
         <v>3225876</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>123</v>
       </c>
@@ -9893,7 +9718,7 @@
         <v>283200</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>12</v>
       </c>
@@ -9902,13 +9727,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2">
       <c r="B164">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>124</v>
       </c>
@@ -9917,7 +9742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>125</v>
       </c>
@@ -9926,7 +9751,7 @@
         <v>5163</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>126</v>
       </c>
@@ -9935,7 +9760,7 @@
         <v>139848</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>127</v>
       </c>
@@ -9944,7 +9769,7 @@
         <v>33594</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>128</v>
       </c>
@@ -9953,7 +9778,7 @@
         <v>164902</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>129</v>
       </c>
@@ -9962,7 +9787,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -9971,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>130</v>
       </c>
@@ -9980,7 +9805,7 @@
         <v>106035</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>131</v>
       </c>
@@ -9989,7 +9814,7 @@
         <v>2486267</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>132</v>
       </c>
@@ -9998,7 +9823,7 @@
         <v>591139</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>133</v>
       </c>
@@ -10007,7 +9832,7 @@
         <v>2876829</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>134</v>
       </c>
@@ -10016,7 +9841,7 @@
         <v>277800</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>12</v>
       </c>
@@ -10025,19 +9850,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2">
       <c r="B179">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2">
       <c r="B180">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>135</v>
       </c>
@@ -10046,7 +9871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>136</v>
       </c>
@@ -10055,7 +9880,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>137</v>
       </c>
@@ -10064,7 +9889,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>138</v>
       </c>
@@ -10073,7 +9898,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>139</v>
       </c>
@@ -10082,7 +9907,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>74</v>
       </c>
@@ -10091,7 +9916,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>6</v>
       </c>
@@ -10100,7 +9925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>140</v>
       </c>
@@ -10109,7 +9934,7 @@
         <v>108179</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>141</v>
       </c>
@@ -10119,7 +9944,7 @@
         <v>2502985</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>142</v>
       </c>
@@ -10128,7 +9953,7 @@
         <v>584972</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>143</v>
       </c>
@@ -10137,7 +9962,7 @@
         <v>2842600</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>144</v>
       </c>
@@ -10146,7 +9971,7 @@
         <v>343800</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>12</v>
       </c>
@@ -10155,19 +9980,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2">
       <c r="B194">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2">
       <c r="B195">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>145</v>
       </c>
@@ -10176,7 +10001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>146</v>
       </c>
@@ -10185,7 +10010,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>147</v>
       </c>
@@ -10194,7 +10019,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>148</v>
       </c>
@@ -10203,7 +10028,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>149</v>
       </c>
@@ -10212,7 +10037,7 @@
         <v>3399</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>108</v>
       </c>
@@ -10221,7 +10046,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -10230,7 +10055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>150</v>
       </c>
@@ -10239,7 +10064,7 @@
         <v>93123</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>151</v>
       </c>
@@ -10248,7 +10073,7 @@
         <v>2087848</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>152</v>
       </c>
@@ -10257,7 +10082,7 @@
         <v>486965</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>153</v>
       </c>
@@ -10266,7 +10091,7 @@
         <v>2366491</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>154</v>
       </c>
@@ -10275,7 +10100,7 @@
         <v>280800</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>12</v>
       </c>
@@ -10284,19 +10109,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2">
       <c r="B209">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2">
       <c r="B210">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>155</v>
       </c>
@@ -10305,7 +10130,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>156</v>
       </c>
@@ -10314,7 +10139,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>157</v>
       </c>
@@ -10323,7 +10148,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>158</v>
       </c>
@@ -10332,7 +10157,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>159</v>
       </c>
@@ -10341,7 +10166,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>160</v>
       </c>
@@ -10350,7 +10175,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -10359,7 +10184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>161</v>
       </c>
@@ -10368,7 +10193,7 @@
         <v>108860</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>162</v>
       </c>
@@ -10377,7 +10202,7 @@
         <v>2535942</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>163</v>
       </c>
@@ -10386,7 +10211,7 @@
         <v>597852</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
         <v>164</v>
       </c>
@@ -10395,7 +10220,7 @@
         <v>2907131</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>102</v>
       </c>
@@ -10404,7 +10229,7 @@
         <v>292800</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
         <v>12</v>
       </c>
@@ -10413,19 +10238,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2">
       <c r="B224">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2">
       <c r="B225">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>165</v>
       </c>
@@ -10434,7 +10259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>166</v>
       </c>
@@ -10443,7 +10268,7 @@
         <v>5333</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>167</v>
       </c>
@@ -10452,7 +10277,7 @@
         <v>139526</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>168</v>
       </c>
@@ -10461,7 +10286,7 @@
         <v>33439</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>169</v>
       </c>
@@ -10470,7 +10295,7 @@
         <v>164029</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>170</v>
       </c>
@@ -10479,7 +10304,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -10488,7 +10313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>171</v>
       </c>
@@ -10497,7 +10322,7 @@
         <v>119536</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>172</v>
       </c>
@@ -10506,7 +10331,7 @@
         <v>2790839</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
         <v>173</v>
       </c>
@@ -10515,7 +10340,7 @@
         <v>655892</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>174</v>
       </c>
@@ -10524,7 +10349,7 @@
         <v>3197188</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>175</v>
       </c>
@@ -10533,7 +10358,7 @@
         <v>351600</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>12</v>
       </c>
@@ -10542,19 +10367,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2">
       <c r="B239">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2">
       <c r="B240">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
         <v>176</v>
       </c>
@@ -10563,7 +10388,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
         <v>177</v>
       </c>
@@ -10572,7 +10397,7 @@
         <v>5473</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
         <v>178</v>
       </c>
@@ -10581,7 +10406,7 @@
         <v>141066</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
         <v>179</v>
       </c>
@@ -10590,7 +10415,7 @@
         <v>32371</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
         <v>180</v>
       </c>
@@ -10599,7 +10424,7 @@
         <v>159479</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>129</v>
       </c>
@@ -10608,7 +10433,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
         <v>6</v>
       </c>
@@ -10617,7 +10442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
         <v>181</v>
       </c>
@@ -10626,7 +10451,7 @@
         <v>133735</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
         <v>182</v>
       </c>
@@ -10635,7 +10460,7 @@
         <v>3200041</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
         <v>183</v>
       </c>
@@ -10645,7 +10470,7 @@
         <v>753695</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
         <v>184</v>
       </c>
@@ -10654,7 +10479,7 @@
         <v>3677667</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
         <v>185</v>
       </c>
@@ -10663,7 +10488,7 @@
         <v>339600</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
         <v>12</v>
       </c>
@@ -10672,19 +10497,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2">
       <c r="B254">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2">
       <c r="B255">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
         <v>186</v>
       </c>
@@ -10693,7 +10518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2">
       <c r="A257" t="s">
         <v>187</v>
       </c>
@@ -10702,7 +10527,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2">
       <c r="A258" t="s">
         <v>188</v>
       </c>
@@ -10711,7 +10536,7 @@
         <v>4303</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2">
       <c r="A259" t="s">
         <v>189</v>
       </c>
@@ -10720,7 +10545,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2">
       <c r="A260" t="s">
         <v>190</v>
       </c>
@@ -10729,7 +10554,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2">
       <c r="A261" t="s">
         <v>74</v>
       </c>
@@ -10738,7 +10563,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2">
       <c r="A262" t="s">
         <v>6</v>
       </c>
@@ -10747,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
         <v>191</v>
       </c>
@@ -10756,7 +10581,7 @@
         <v>98323</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
         <v>192</v>
       </c>
@@ -10765,7 +10590,7 @@
         <v>2228394</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2">
       <c r="A265" t="s">
         <v>193</v>
       </c>
@@ -10774,7 +10599,7 @@
         <v>528410</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2">
       <c r="A266" t="s">
         <v>194</v>
       </c>
@@ -10783,7 +10608,7 @@
         <v>2566315</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2">
       <c r="A267" t="s">
         <v>195</v>
       </c>
@@ -10792,7 +10617,7 @@
         <v>318000</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2">
       <c r="A268" t="s">
         <v>12</v>
       </c>
@@ -10801,19 +10626,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2">
       <c r="B269">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2">
       <c r="B270">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2">
       <c r="A271" t="s">
         <v>196</v>
       </c>
@@ -10822,7 +10647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2">
       <c r="A272" t="s">
         <v>197</v>
       </c>
@@ -10831,7 +10656,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2">
       <c r="A273" t="s">
         <v>198</v>
       </c>
@@ -10840,7 +10665,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2">
       <c r="A274" t="s">
         <v>199</v>
       </c>
@@ -10849,7 +10674,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2">
       <c r="A275" t="s">
         <v>200</v>
       </c>
@@ -10858,7 +10683,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2">
       <c r="A276" t="s">
         <v>18</v>
       </c>
@@ -10867,7 +10692,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -10876,7 +10701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2">
       <c r="A278" t="s">
         <v>201</v>
       </c>
@@ -10885,7 +10710,7 @@
         <v>129513</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2">
       <c r="A279" t="s">
         <v>202</v>
       </c>
@@ -10894,7 +10719,7 @@
         <v>3073813</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2">
       <c r="A280" t="s">
         <v>203</v>
       </c>
@@ -10903,7 +10728,7 @@
         <v>726532</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2">
       <c r="A281" t="s">
         <v>204</v>
       </c>
@@ -10912,7 +10737,7 @@
         <v>3539926</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2">
       <c r="A282" t="s">
         <v>205</v>
       </c>
@@ -10921,7 +10746,7 @@
         <v>359400</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2">
       <c r="A283" t="s">
         <v>12</v>
       </c>
@@ -10930,19 +10755,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2">
       <c r="B284">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2">
       <c r="B285">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2">
       <c r="A286" t="s">
         <v>206</v>
       </c>
@@ -10951,7 +10776,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2">
       <c r="A287" t="s">
         <v>207</v>
       </c>
@@ -10960,7 +10785,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2">
       <c r="A288" t="s">
         <v>208</v>
       </c>
@@ -10969,7 +10794,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2">
       <c r="A289" t="s">
         <v>209</v>
       </c>
@@ -10978,7 +10803,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2">
       <c r="A290" t="s">
         <v>210</v>
       </c>
@@ -10987,7 +10812,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2">
       <c r="A291" t="s">
         <v>108</v>
       </c>
@@ -10996,7 +10821,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2">
       <c r="A292" t="s">
         <v>6</v>
       </c>
@@ -11005,7 +10830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2">
       <c r="A293" t="s">
         <v>211</v>
       </c>
@@ -11014,7 +10839,7 @@
         <v>76739</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2">
       <c r="A294" t="s">
         <v>212</v>
       </c>
@@ -11023,7 +10848,7 @@
         <v>1564078</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2">
       <c r="A295" t="s">
         <v>213</v>
       </c>
@@ -11032,7 +10857,7 @@
         <v>370307</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2">
       <c r="A296" t="s">
         <v>214</v>
       </c>
@@ -11041,7 +10866,7 @@
         <v>1778311</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2">
       <c r="A297" t="s">
         <v>215</v>
       </c>
@@ -11050,7 +10875,7 @@
         <v>319800</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2">
       <c r="A298" t="s">
         <v>12</v>
       </c>
@@ -11059,19 +10884,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2">
       <c r="B299">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2">
       <c r="B300">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2">
       <c r="A301" t="s">
         <v>216</v>
       </c>
@@ -11080,7 +10905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2">
       <c r="A302" t="s">
         <v>217</v>
       </c>
@@ -11089,7 +10914,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2">
       <c r="A303" t="s">
         <v>218</v>
       </c>
@@ -11098,7 +10923,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2">
       <c r="A304" t="s">
         <v>219</v>
       </c>
@@ -11107,7 +10932,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2">
       <c r="A305" t="s">
         <v>220</v>
       </c>
@@ -11116,7 +10941,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2">
       <c r="A306" t="s">
         <v>5</v>
       </c>
@@ -11125,7 +10950,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2">
       <c r="A307" t="s">
         <v>6</v>
       </c>
@@ -11134,7 +10959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2">
       <c r="A308" t="s">
         <v>221</v>
       </c>
@@ -11143,7 +10968,7 @@
         <v>149985</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2">
       <c r="A309" t="s">
         <v>222</v>
       </c>
@@ -11152,7 +10977,7 @@
         <v>3696382</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2">
       <c r="A310" t="s">
         <v>223</v>
       </c>
@@ -11161,7 +10986,7 @@
         <v>853518</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2">
       <c r="A311" t="s">
         <v>224</v>
       </c>
@@ -11170,7 +10995,7 @@
         <v>4229808</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2">
       <c r="A312" t="s">
         <v>225</v>
       </c>
@@ -11179,7 +11004,7 @@
         <v>310800</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2">
       <c r="A313" t="s">
         <v>12</v>
       </c>
@@ -11188,20 +11013,20 @@
         <v>51</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2">
       <c r="B314">
         <f t="shared" ref="B314:B343" si="13">SUMPRODUCT(MID(0&amp;A314,LARGE(INDEX(ISNUMBER(--MID(A314,ROW($1:$25),1))*
 ROW($1:$25),0),ROW($1:$25))+1,1)*10^ROW($1:$25)/10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2">
       <c r="B315">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2">
       <c r="A316" t="s">
         <v>226</v>
       </c>
@@ -11210,7 +11035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2">
       <c r="A317" t="s">
         <v>227</v>
       </c>
@@ -11219,7 +11044,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2">
       <c r="A318" t="s">
         <v>228</v>
       </c>
@@ -11228,7 +11053,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2">
       <c r="A319" t="s">
         <v>229</v>
       </c>
@@ -11237,7 +11062,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2">
       <c r="A320" t="s">
         <v>230</v>
       </c>
@@ -11246,7 +11071,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2">
       <c r="A321" t="s">
         <v>74</v>
       </c>
@@ -11255,7 +11080,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2">
       <c r="A322" t="s">
         <v>6</v>
       </c>
@@ -11264,7 +11089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2">
       <c r="A323" t="s">
         <v>231</v>
       </c>
@@ -11273,7 +11098,7 @@
         <v>84467</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2">
       <c r="A324" t="s">
         <v>232</v>
       </c>
@@ -11282,7 +11107,7 @@
         <v>1820175</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2">
       <c r="A325" t="s">
         <v>233</v>
       </c>
@@ -11291,7 +11116,7 @@
         <v>427338</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2">
       <c r="A326" t="s">
         <v>234</v>
       </c>
@@ -11300,7 +11125,7 @@
         <v>2067492</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2">
       <c r="A327" t="s">
         <v>235</v>
       </c>
@@ -11309,7 +11134,7 @@
         <v>271200</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2">
       <c r="A328" t="s">
         <v>12</v>
       </c>
@@ -11318,19 +11143,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2">
       <c r="B329">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2">
       <c r="B330">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2">
       <c r="A331" t="s">
         <v>236</v>
       </c>
@@ -11339,7 +11164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2">
       <c r="A332" t="s">
         <v>237</v>
       </c>
@@ -11348,7 +11173,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2">
       <c r="A333" t="s">
         <v>238</v>
       </c>
@@ -11357,7 +11182,7 @@
         <v>5456</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2">
       <c r="A334" t="s">
         <v>239</v>
       </c>
@@ -11366,7 +11191,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2">
       <c r="A335" t="s">
         <v>240</v>
       </c>
@@ -11375,7 +11200,7 @@
         <v>4281</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2">
       <c r="A336" t="s">
         <v>108</v>
       </c>
@@ -11384,7 +11209,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2">
       <c r="A337" t="s">
         <v>6</v>
       </c>
@@ -11393,7 +11218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2">
       <c r="A338" t="s">
         <v>241</v>
       </c>
@@ -11402,7 +11227,7 @@
         <v>69801</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2">
       <c r="A339" t="s">
         <v>242</v>
       </c>
@@ -11411,7 +11236,7 @@
         <v>1421898</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2">
       <c r="A340" t="s">
         <v>243</v>
       </c>
@@ -11420,7 +11245,7 @@
         <v>335097</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2">
       <c r="A341" t="s">
         <v>244</v>
       </c>
@@ -11429,7 +11254,7 @@
         <v>1613475</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2">
       <c r="A342" t="s">
         <v>245</v>
       </c>
@@ -11438,7 +11263,7 @@
         <v>219600</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2">
       <c r="A343" t="s">
         <v>12</v>
       </c>
@@ -11449,7 +11274,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>